--- a/Output_testing/R1_201907/Country/HKD/MN/HUNGARY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/HUNGARY_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>7912.400113</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>59.24482319838843</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>7821.910693</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>56.48072923431089</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>6444.370831</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>42.22976005881684</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>3670.850155</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>42.47785520213206</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-9.751493605526596</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>621.534675</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>4.653798014024018</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>517.680976</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>3.73808909137462</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>2115.628291</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.86364587723626</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>1638.235466</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.9571151023312</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>196.9134501458329</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1688.015827</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>12.63917367656714</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1570.03069</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>11.33693310648597</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1535.756435</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>10.06376378076464</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>819.253618</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>9.480129967121147</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-12.52990559158712</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>459.015269</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>3.436919021901554</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>470.912507</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.400381677167473</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>830.6036360000001</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.442919591704801</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>631.433332</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>7.306736182070003</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>53.51919732321777</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>617.655468</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>4.624752095013003</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1143.869546</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>8.259693653216724</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1224.701595</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>8.025431164158325</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>557.628735</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.4526939705274</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>7.103306047028579</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>672.559024</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.03584751760653</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>671.143837</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.84621914295148</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>646.763773</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.238222731867039</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>358.093703</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.143741047046166</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-6.003552372225551</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>20.504843</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.1535318968829443</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>66.99087299999999</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.4837300638665202</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>799.362689</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>5.238198645251213</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>208.344878</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.410897526758313</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>5.999366704989506</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>136.451136</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.021690424155533</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>175.849484</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>1.269780170295954</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>232.49191</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.523512198846032</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>106.111073</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.227881990251619</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-11.14675578908914</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>168.003326</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.25794034723522</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>185.546147</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.339798177260606</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>190.536652</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.248580708246068</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>96.531856</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.117034482046588</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-19.61527258471584</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>322.171111</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>2.41228580939223</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>299.619444</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>2.163502672696493</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>239.202293</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.56748512831024</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>84.098691</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.9731620382600026</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-46.11887408272442</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>737.117895</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>5.519237998833396</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>925.259016</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>6.681143010373275</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>1000.841063</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>6.558480114798533</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>471.215819</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.452752491455502</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-16.43369516517765</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,515 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>4.318159</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>21.80164415099532</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>8.698669000000001</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>45.20238150110355</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>10.654994</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>52.13645323655993</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>6.234734</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>62.303764746936</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-26.30257046560913</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>12.0624</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>60.90098868683758</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>7.26771</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>37.76644450540482</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>6.945678</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>33.98622432290465</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>2.119845</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>21.18363416626411</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-43.8528997330169</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NAILS, SCREWS, NUTS, BOLTS, RIVETS AND THE LIKE, OF IRON, STEEL, COPPER OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.736834</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>8.768976968506671</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>1.725482</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>8.966417234324831</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.827347</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>8.941477715751702</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>1.21496</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>12.14110850870901</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>12.52380211459096</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.890907</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>4.498036636823883</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.799494</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>4.154547413615035</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.673455</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.295314395712233</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>2.28559145733474</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>30.4550432342406</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.674570186920253</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.030302805122619</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.8957492986285241</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>1.455202231559247</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>44.57671038392424</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.176225571558939</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.213401969015626</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.3181866779665744</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.2076747522782566</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-71.1240794775601</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.07951364074856343</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.1939543483287788</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>19.43999999999999</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.4448802782440022</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.2398180336447903</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.1184071860141017</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-67.41736787108839</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.1106626025757585</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.08049227017316114</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>1.125575724222891</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.2146558255116484</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1808,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>7912.400113</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>59.33281587126005</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>7821.910693</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>56.55932210043714</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>6444.370831</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>42.28639056367304</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>3670.850155</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>42.52710056442552</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-9.751493605526596</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>621.534675</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>4.660710012476394</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>517.680976</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>3.743290637804866</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>2115.628291</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>13.88223715656349</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>1638.235466</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.97909243609278</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>196.9134501458329</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1675.953427</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>12.56749338669323</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1562.76298</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>11.3001564734765</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1528.810757</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>10.03168353650048</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>817.133773</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>9.466561878486553</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-12.40313005080916</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>459.015269</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>3.442023665224865</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>470.912507</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.40511330414104</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>830.6036360000001</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.450218597996587</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>631.433332</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>7.315207016314261</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>53.51919732321777</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>617.584988</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>4.631092444080797</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1143.828238</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>8.270888313582216</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1224.701595</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>8.03619334272344</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>557.628735</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.460174697857803</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>7.103306047028579</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>672.559024</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.043326950564989</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>671.143837</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.852962651002525</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>646.763773</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.243906228355401</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>358.093703</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.1485449625956</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-6.003552372225551</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>20.504843</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.153759928316721</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>66.99087299999999</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4844031736628365</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>799.362689</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>5.245223118831087</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>208.344878</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.413692524801239</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>5.999366704989506</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>136.451136</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.023207877772834</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>175.849484</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.271547067860606</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>232.49191</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.525555243013346</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>106.111073</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.229305496527438</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-11.14675578908914</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>168.003326</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.259808688256268</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>185.546147</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.341662504796903</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>190.536652</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.250255066702361</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>96.531856</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.118329480758291</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-19.61527258471584</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>322.171111</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>2.415868628356646</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>299.619444</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>2.166513184037691</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>239.202293</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.569587140588955</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>84.098691</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.9742902429896511</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-46.11887408272442</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>729.4442</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>5.469892546997211</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>913.324205</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>6.604140589197684</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>987.349996</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>6.478750005051815</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>463.32867</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>5.367700699150856</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-16.35496799018937</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2266,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>768.856148</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>35.82266341226627</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>752.5361380000001</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>35.25409444720718</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1165.036691</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>41.1864331093922</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>657.181822</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>48.31237138634803</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>2.747491223269627</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>119.715066</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>5.577782691665804</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>281.847638</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>13.20372902779356</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>237.7262</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>8.404108051091407</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>123.696332</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>9.093469920586159</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-30.53708526932321</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>387.46557</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>18.05285518501427</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>352.727797</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>16.52425503795981</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>306.061989</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>10.81991814906371</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>121.559171</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.936357668713162</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-49.55188982084159</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>280.44513</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>13.06654245235906</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>146.497742</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.862986336439023</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>279.686831</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>9.887502295461511</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>81.26380899999999</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.974065607489144</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-44.24030172720641</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>47.327214</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.205076803732986</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>46.402741</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>2.173831303531755</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>119.395567</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>4.220877824528064</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>65.431091</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.810131782077708</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>9.967456864543101</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>103.701423</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>4.83167258422189</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>59.760761</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.799615069822701</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>145.869547</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>5.156787238225137</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>64.05788099999999</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.709180980806995</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-7.312025217056339</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>66.454311</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>3.096249436828414</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>52.588244</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.463603841957655</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>116.899972</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.132653430112289</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>43.05389</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.165083776932248</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-50.53754625599667</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>64.149657</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>2.988870644659696</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>62.91819</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>2.947531288799484</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>87.55390300000001</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.095209788011486</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>37.84006</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.781791843295527</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-29.92408887107775</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>97.34785100000001</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>4.53564598442991</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>110.055895</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>5.155793484035867</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>102.777781</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.633405054955699</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>23.559651</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.731975186685468</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-59.41619329244128</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>23.599816</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.099566241823712</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>40.894639</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.915793000349496</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>46.021999</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.626971921156443</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>21.741307</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.598300596647678</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>4.754004058178629</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>187.221967</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>8.723074562997997</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>228.376563</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>10.69876716210347</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>221.659948</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>7.836133138002049</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>120.89146</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>8.887271250417877</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-6.601194706869551</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
